--- a/config_12.01/game_enter_btn_config.xlsx
+++ b/config_12.01/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="17" activeTab="23"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="17" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -1467,10 +1467,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>111#112#53#79#100;36;113;89;11#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>cps_ggxt</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1492,6 +1488,10 @@
   </si>
   <si>
     <t>"by3d_ad_mfcj",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>111#112#53#79#100;36;113;89,93;11#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2505,8 +2505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2538,7 +2538,7 @@
         <v>110</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2983,7 +2983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -3060,10 +3060,10 @@
   <dimension ref="A1:F116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E114" sqref="E114"/>
+      <selection pane="bottomRight" activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3088,7 +3088,7 @@
         <v>22</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>51</v>
@@ -4611,7 +4611,7 @@
         <v>1</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E88">
         <v>87</v>
@@ -5085,19 +5085,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -5476,7 +5476,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D2" s="6">
         <f>'all_enter|所有按钮入口'!E2</f>

--- a/config_12.01/game_enter_btn_config.xlsx
+++ b/config_12.01/game_enter_btn_config.xlsx
@@ -1491,7 +1491,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>111#112#53#79#100;36;113;89,93;11#</t>
+    <t>111#112#53#79#100;36;113;89;93;11#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2506,7 +2506,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_12.01/game_enter_btn_config.xlsx
+++ b/config_12.01/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="17" activeTab="24"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="17" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -35,8 +35,9 @@
     <sheet name="crazy_fish_game|疯狂捕鱼" sheetId="27" r:id="rId21"/>
     <sheet name="lwzb_game|龙王争霸" sheetId="32" r:id="rId22"/>
     <sheet name="lwzb_game_hall|龙王争霸大厅" sheetId="33" r:id="rId23"/>
-    <sheet name="year_panel|活动入口内" sheetId="31" r:id="rId24"/>
-    <sheet name="all_enter|所有按钮入口" sheetId="10" r:id="rId25"/>
+    <sheet name="xxlxy_game|西游消消乐" sheetId="34" r:id="rId24"/>
+    <sheet name="year_panel|活动入口内" sheetId="31" r:id="rId25"/>
+    <sheet name="all_enter|所有按钮入口" sheetId="10" r:id="rId26"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -80,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="335">
   <si>
     <t>id|行号</t>
   </si>
@@ -1498,7 +1499,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1623,6 +1624,12 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2863,7 +2870,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="A1:C2"/>
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2976,6 +2983,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
@@ -3010,11 +3055,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
